--- a/AfDD_2024_Annex_Table_Tab14.xlsx
+++ b/AfDD_2024_Annex_Table_Tab14.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{102CD9C6-FDC8-4123-8079-5C931E8DDFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{835CA2BD-DAC0-4EBB-AF85-0F5533A9D053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{A22313BB-98A0-440E-BA3C-D941614C14C4}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{C872659A-9D4F-43E4-8BDC-5D2FCDA1A366}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
   <si>
     <t>Table 14: Subjective well-being</t>
   </si>
@@ -48,22 +48,22 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Cantril life ladder, most recent measure 2013-22</t>
-  </si>
-  <si>
-    <t>Negative affect, most recent measure 2013-22</t>
-  </si>
-  <si>
-    <t>Positive affect, most recent measure 2013-22</t>
-  </si>
-  <si>
-    <t>Freedom to make life choices, most recent measure 2013-22</t>
-  </si>
-  <si>
-    <t>Generosity, most recent measure 2013-22</t>
-  </si>
-  <si>
-    <t>Social support, most recent measure 2013-22</t>
+    <t>Cantril life ladder, most recent measure 2014-23</t>
+  </si>
+  <si>
+    <t>Negative affect, most recent measure 2014-23</t>
+  </si>
+  <si>
+    <t>Positive affect, most recent measure 2014-23</t>
+  </si>
+  <si>
+    <t>Freedom to make life choices, most recent measure 2014-23</t>
+  </si>
+  <si>
+    <t>Generosity, most recent measure 2014-23</t>
+  </si>
+  <si>
+    <t>Social support, most recent measure 2014-23</t>
   </si>
   <si>
     <t>AGO</t>
@@ -537,13 +537,10 @@
     <t>Source: World Happiness Report Online Dataset 2023.</t>
   </si>
   <si>
-    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024</t>
   </si>
   <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
-  </si>
-  <si>
-    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
@@ -564,26 +561,13 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -596,6 +580,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -669,6 +661,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -677,10 +676,30 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -695,13 +714,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFD42C2D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE3DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,24 +735,11 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -742,7 +748,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -750,20 +756,42 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -771,7 +799,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top/>
@@ -781,7 +809,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -789,29 +817,36 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,225 +854,272 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="39" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1045,21 +1127,23 @@
     <xf numFmtId="39" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1375,19 +1459,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8A2ECD-F923-4E42-BC2C-DEB4E7559077}">
-  <sheetPr codeName="Sheet15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF990D8B-0BB5-40D5-B74C-1255910D6BBC}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="12.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.42578125" style="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1395,2709 +1479,2714 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="14">
         <v>3.7948379516601598</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="15">
         <v>0.36786413192749001</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="16">
         <v>0.59524941444396995</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="15">
         <v>0.37454155087471003</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="15">
         <v>-0.17003098130229999</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="17">
         <v>0.75461548566818004</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="19">
         <v>3.4352750778198202</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="20">
         <v>0.28691911697388001</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="20">
         <v>0.62335139513016002</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="20">
         <v>0.73940306901931996</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="20">
         <v>-0.2146205604076</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="21">
         <v>0.75039929151535001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="23">
         <v>4.3961148262023899</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="24">
         <v>0.27959516644478</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="24">
         <v>0.72560495138168002</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="24">
         <v>0.59668242931366</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="24">
         <v>-0.19201485812659999</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="25">
         <v>0.75909769535064997</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="23">
         <v>3.51178050041199</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="24">
         <v>0.27342551946639998</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="24">
         <v>0.70712631940841997</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="24">
         <v>0.71631354093552002</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="24">
         <v>-0.1260188668966</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="25">
         <v>0.78970539569855003</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="23">
         <v>3.3555634021759002</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="24">
         <v>0.32876443862915</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="24">
         <v>0.53563654422759999</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="24">
         <v>0.74357163906097001</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="24">
         <v>2.047371305525E-2</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="25">
         <v>0.50332516431808005</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="23">
         <v>4.7396774291992196</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="24">
         <v>0.35068792104721003</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="24">
         <v>0.62859839200973999</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="24">
         <v>0.88408809900284002</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="24">
         <v>4.7219496220350002E-2</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="25">
         <v>0.71069991588592996</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="23">
         <v>4.9489626884460503</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="24">
         <v>0.26142346858977999</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="24">
         <v>0.67575639486312999</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="24">
         <v>0.68252789974213002</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="24">
         <v>-0.1196495369077</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="25">
         <v>0.80795896053313998</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="23">
         <v>5.59865379333496</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="24">
         <v>0.17280697822571001</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="24">
         <v>0.78432101011276001</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="24">
         <v>0.70356470346451006</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="24">
         <v>-0.14547544717790001</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="25">
         <v>0.92223876714705999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="19">
         <v>3.0821549892425502</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="20">
         <v>0.34855136275290999</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="20">
         <v>0.65568989515304998</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="20">
         <v>0.83257377147675005</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="20">
         <v>0.14122971892357</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="21">
         <v>0.61907100677490001</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="27">
         <v>3.2962195873260498</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="28">
         <v>0.19135029613971999</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="28">
         <v>0.64060926437377996</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="28">
         <v>0.65198713541030995</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="28">
         <v>-6.9513283669900006E-2</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="29">
         <v>0.66617190837859996</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="32">
         <v>4.0159240245819099</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="33">
         <v>0.28613884001970002</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="34">
         <v>0.65719435811043003</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="33">
         <v>0.69252538383007001</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="33">
         <v>-8.2840060628999998E-2</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="35">
         <v>0.72832835912703997</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="37">
         <v>3.7752830982208301</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="38">
         <v>0.36276659369469</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="24">
         <v>0.63559365272521995</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="38">
         <v>0.64639860391616999</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="38">
         <v>-2.2636670619200001E-2</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="39">
         <v>0.48471522331237998</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="23">
         <v>4.7124080657959002</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="24">
         <v>0.36223065853119002</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="24">
         <v>0.58575963973999001</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="24">
         <v>0.67450636625289995</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="24">
         <v>2.5319203734400001E-2</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="25">
         <v>0.62910860776901001</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="23">
         <v>3.4758620262146001</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="24">
         <v>0.59933549165725997</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="24">
         <v>0.60220545530319003</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="24">
         <v>0.64525234699249001</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="24">
         <v>7.7882505953310005E-2</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="25">
         <v>0.31958913803101002</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="41">
         <v>4.39664602279663</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="16">
         <v>0.49919214844704002</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="16">
         <v>0.58819162845612005</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="16">
         <v>0.67947953939437999</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="16">
         <v>0.22116167843341999</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="42">
         <v>0.71967178583144997</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="41">
         <v>5.8049187660217303</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="16">
         <v>0.47688362002373003</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="16">
         <v>0.58261901140213002</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="16">
         <v>0.69769448041916005</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="16">
         <v>2.7624206617470001E-2</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="42">
         <v>0.64634507894516002</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="19">
         <v>3.2071967124939</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="20">
         <v>0.46142342686652998</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="20">
         <v>0.56338244676589999</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="20">
         <v>0.66410112380981001</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="20">
         <v>8.5997901856899997E-2</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="21">
         <v>0.65408140420913996</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="30" t="s">
+      <c r="C20" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="41">
         <v>5.1395006179809597</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="16">
         <v>0.41365420818329002</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="16">
         <v>0.66075772047043002</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="16">
         <v>0.69927603006363004</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="16">
         <v>-0.164365619421</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="42">
         <v>0.77524775266646995</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="21" t="s">
+      <c r="C22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="32">
         <v>4.35883075850351</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="33">
         <v>0.45364087820053001</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="34">
         <v>0.60264422212327995</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="33">
         <v>0.67238692726408</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="33">
         <v>3.5854743793609999E-2</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="35">
         <v>0.60410842725209002</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="37">
         <v>3.5452036857604998</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="38">
         <v>0.35154524445534002</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="24">
         <v>0.60250300168991</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="38">
         <v>0.48055356740951999</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="38">
         <v>-1.42812309787E-2</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="39">
         <v>0.47182092070580001</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="21" t="s">
+      <c r="C25" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="21" t="s">
+      <c r="C26" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="23">
         <v>3.6280715465545699</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="24">
         <v>0.33476305007934998</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="24">
         <v>0.56013673543929998</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="24">
         <v>0.67365854978561002</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="24">
         <v>0.36124509572982999</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="25">
         <v>0.74016761779785001</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="23">
         <v>4.4479465484619203</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="24">
         <v>0.28072103857994002</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="24">
         <v>0.72494655847549005</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="24">
         <v>0.70597612857819003</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="24">
         <v>0.29431590437888999</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="25">
         <v>0.69059497117996005</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="23">
         <v>4.0191340446472203</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="24">
         <v>0.34510734677315003</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="24">
         <v>0.68689501285553001</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="24">
         <v>0.52349269390106001</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="24">
         <v>7.543767988682E-2</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="25">
         <v>0.64242935180663996</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="23">
         <v>5.74050092697144</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="24">
         <v>0.16825033724308</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="24">
         <v>0.72469615936278997</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="24">
         <v>0.79814380407332997</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="24">
         <v>-3.7532523274400001E-2</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="25">
         <v>0.88703620433806996</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="23">
         <v>3.2681522369384801</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="24">
         <v>0.41766768693924</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="24">
         <v>0.71673101186751997</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="24">
         <v>0.86899918317795</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="24">
         <v>6.3509397208690005E-2</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="25">
         <v>0.48945823311806003</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="21" t="s">
+      <c r="C32" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="23">
         <v>4.6679410934448304</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="24">
         <v>0.19328223168850001</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="24">
         <v>0.77273964881896995</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="24">
         <v>0.91732281446456998</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="24">
         <v>7.2781279683110003E-2</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="25">
         <v>0.59441655874251997</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="41">
         <v>2.81662249565125</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="16">
         <v>0.51736378669739003</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="16">
         <v>0.56499928236008001</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="16">
         <v>0.45601108670235002</v>
       </c>
-      <c r="G34" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="30">
+      <c r="G34" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="42">
         <v>0.55682265758514005</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="23">
         <v>4.13867282867432</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="24">
         <v>0.30272498726844999</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="24">
         <v>0.46132752299308999</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="24">
         <v>0.39009580016135997</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="24">
         <v>-7.67571032047E-2</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="25">
         <v>0.81061553955078003</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="23">
         <v>3.61584520339966</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="24">
         <v>0.19512881338596</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="24">
         <v>0.70706129074097002</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="24">
         <v>0.85613989830017001</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="24">
         <v>0.13604161143303001</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="25">
         <v>0.60018098354339999</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="27">
         <v>4.2245335578918501</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="28">
         <v>0.35883295536040999</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="28">
         <v>0.69930899143219005</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="28">
         <v>0.71062111854553001</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="28">
         <v>8.4252886474129998E-2</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="29">
         <v>0.79334956407546997</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="32">
         <v>4.0102385607632698</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="33">
         <v>0.31503522531553002</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="34">
         <v>0.65648592873053002</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="33">
         <v>0.67100133137269002</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="33">
         <v>9.5901299733669995E-2</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="35">
         <v>0.66153569113124999</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="14">
         <v>5.2170176506042498</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="15">
         <v>0.25777915120125</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="16">
         <v>0.49802228808402998</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="15">
         <v>0.55848693847655995</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="15">
         <v>-0.1134834140539</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="17">
         <v>0.84071028232573997</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="23">
         <v>4.0235610008239799</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="24">
         <v>0.30701082944870001</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="24">
         <v>0.48562654852866999</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="24">
         <v>0.73252511024474998</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="24">
         <v>-0.20773449540139999</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="25">
         <v>0.76921612024306996</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="41">
         <v>5.33022212982178</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="16">
         <v>0.40073743462563</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="16">
         <v>0.62886780500411998</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="16">
         <v>0.76196432113646995</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="16">
         <v>-0.1045541167259</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="42">
         <v>0.82671934366225996</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="41">
         <v>4.7238688468933097</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="16">
         <v>0.38927420973777999</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="16">
         <v>0.63058406114578003</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="16">
         <v>0.62402898073196</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="16">
         <v>-1.27996131778E-2</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="42">
         <v>0.64797562360764005</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="23">
         <v>4.5960931777954102</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="24">
         <v>0.41421645879745</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="24">
         <v>0.57286942005157004</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="24">
         <v>0.79470521211624001</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="24">
         <v>-0.25410822033879998</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="25">
         <v>0.56357765197753995</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="27">
         <v>4.2608680725097701</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="28">
         <v>0.30368703603745001</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="28">
         <v>0.45827826857567</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="28">
         <v>0.47418925166129999</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="28">
         <v>-0.23085215687749999</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="29">
         <v>0.75473982095717995</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="32">
         <v>4.6919384797414203</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="33">
         <v>0.34545085330803998</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="44">
         <v>0.54570806523163995</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="33">
         <v>0.65764996906121997</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="33">
         <v>-0.15392200276260001</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H45" s="35">
         <v>0.73382314046223995</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="37">
         <v>4.2173256874084499</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="38">
         <v>0.44385108351706998</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="24">
         <v>0.57091766595839999</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="38">
         <v>0.71403676271438998</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="38">
         <v>-2.9674673453000001E-2</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="39">
         <v>0.36568281054496998</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="23">
         <v>4.6355085372924796</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="24">
         <v>0.36310580372809997</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="24">
         <v>0.61971592903136996</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="24">
         <v>0.64410161972045998</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="24">
         <v>6.7367151379589998E-2</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="25">
         <v>0.65754359960555997</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" s="30" t="s">
+      <c r="C48" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="23">
         <v>4.8486738204956099</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="24">
         <v>0.39927443861960998</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="24">
         <v>0.62866216897964</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="24">
         <v>0.71334981918335005</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="24">
         <v>-5.1340963691E-3</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="25">
         <v>0.53629708290099998</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="23">
         <v>4.27944135665894</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="24">
         <v>0.43786013126373002</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="24">
         <v>0.72240936756134</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="24">
         <v>0.59908741712570002</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="24">
         <v>0.36420351266861001</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="25">
         <v>0.58769625425339</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="19">
         <v>4.1908545494079599</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="20">
         <v>0.29150187969208002</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="20">
         <v>0.62028515338898005</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="20">
         <v>0.78643995523453003</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="20">
         <v>0.11722172051668001</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="21">
         <v>0.62816131114960005</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="23">
         <v>5.3174929618835503</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="24">
         <v>0.49233669042587003</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="24">
         <v>0.69889688491821</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="24">
         <v>0.72923207283019997</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="24">
         <v>0.1391628831625</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H52" s="25">
         <v>0.58201742172241</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H53" s="21" t="s">
+      <c r="C53" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="23">
         <v>4.0422601699829102</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="24">
         <v>0.43881666660308999</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="24">
         <v>0.63687366247177002</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="24">
         <v>0.73164057731627996</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="24">
         <v>0.15432134270667999</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H54" s="25">
         <v>0.59689104557036998</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="23">
         <v>4.2105479240417498</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="24">
         <v>0.40766540169715998</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="24">
         <v>0.65543460845946999</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="24">
         <v>0.81764286756516003</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="24">
         <v>-1.92033089697E-2</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="25">
         <v>0.64162522554398005</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="23">
         <v>4.5013313293456996</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="24">
         <v>0.36627861857414001</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="24">
         <v>0.78650444746017001</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="24">
         <v>0.79257470369339</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="24">
         <v>3.2293986529110003E-2</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="25">
         <v>0.58693045377731001</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="23">
         <v>4.47926568984985</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="24">
         <v>0.18810525536537001</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="24">
         <v>0.66629731655121005</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="24">
         <v>0.72573286294937001</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G57" s="24">
         <v>5.0008479505780003E-2</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H57" s="25">
         <v>0.74156010150909002</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="23">
         <v>4.9068198204040501</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="24">
         <v>0.28679892420768999</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="24">
         <v>0.81271225214005005</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="24">
         <v>0.75847196578980003</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="24">
         <v>5.187581852078E-2</v>
       </c>
-      <c r="H58" s="21">
+      <c r="H58" s="25">
         <v>0.60918867588043002</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="23">
         <v>2.5604295730590798</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="24">
         <v>0.50460660457610995</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="24">
         <v>0.49370053410530002</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="24">
         <v>0.65959638357161998</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="24">
         <v>0.10053613036870999</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H59" s="25">
         <v>0.50216770172118996</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="46">
         <v>4.2389822006225604</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="47">
         <v>0.41426458954811002</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="47">
         <v>0.59396976232528997</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="47">
         <v>0.69572246074677002</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="47">
         <v>6.9354786537600003E-3</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="48">
         <v>0.57893007993697998</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="32">
         <v>4.3406872015733002</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="33">
         <v>0.38726662213986002</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="44">
         <v>0.65433690410393996</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F61" s="33">
         <v>0.72058688218777001</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="33">
         <v>7.9224186555409998E-2</v>
       </c>
-      <c r="H61" s="26">
+      <c r="H61" s="35">
         <v>0.58574552031663996</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="34">
+      <c r="C62" s="51">
         <v>4.2417924302689602</v>
       </c>
-      <c r="D62" s="35">
+      <c r="D62" s="52">
         <v>0.35339219646251002</v>
       </c>
-      <c r="E62" s="35">
+      <c r="E62" s="52">
         <v>0.63388141482434002</v>
       </c>
-      <c r="F62" s="35">
+      <c r="F62" s="52">
         <v>0.68779800546930003</v>
       </c>
-      <c r="G62" s="35">
+      <c r="G62" s="52">
         <v>1.060821752712E-2</v>
       </c>
-      <c r="H62" s="36">
+      <c r="H62" s="53">
         <v>0.65545884662485998</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="38">
+      <c r="C63" s="55">
         <v>5.8892565601401898</v>
       </c>
-      <c r="D63" s="39">
+      <c r="D63" s="56">
         <v>0.27610707493886</v>
       </c>
-      <c r="E63" s="39">
+      <c r="E63" s="52">
         <v>0.65688050678877996</v>
       </c>
-      <c r="F63" s="39">
+      <c r="F63" s="56">
         <v>0.81369869814855</v>
       </c>
-      <c r="G63" s="39">
+      <c r="G63" s="56">
         <v>3.8755434891640003E-2</v>
       </c>
-      <c r="H63" s="40">
+      <c r="H63" s="57">
         <v>0.84456822067221005</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="34">
+      <c r="C64" s="60">
         <v>6.0682964216579096</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="61">
         <v>0.29666185108097998</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="56">
         <v>0.76059269363229998</v>
       </c>
-      <c r="F64" s="35">
+      <c r="F64" s="61">
         <v>0.83922960812394998</v>
       </c>
-      <c r="G64" s="35">
+      <c r="G64" s="61">
         <v>-3.60213596882E-2</v>
       </c>
-      <c r="H64" s="36">
+      <c r="H64" s="62">
         <v>0.83633621443401995</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
+      <c r="A65" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="43">
+      <c r="C65" s="63">
         <v>4.8150287738868203</v>
       </c>
-      <c r="D65" s="44">
+      <c r="D65" s="64">
         <v>0.3236083449037</v>
       </c>
-      <c r="E65" s="44">
+      <c r="E65" s="64">
         <v>0.59870941385075005</v>
       </c>
-      <c r="F65" s="44">
+      <c r="F65" s="64">
         <v>0.78336232687745999</v>
       </c>
-      <c r="G65" s="44">
+      <c r="G65" s="64">
         <v>0.10099949602902</v>
       </c>
-      <c r="H65" s="45">
+      <c r="H65" s="65">
         <v>0.75681046236839</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="47">
+      <c r="C66" s="67">
         <v>5.3897029207598797</v>
       </c>
-      <c r="D66" s="48">
+      <c r="D66" s="68">
         <v>0.29984825606049997</v>
       </c>
-      <c r="E66" s="48">
+      <c r="E66" s="68">
         <v>0.64981542625069</v>
       </c>
-      <c r="F66" s="48">
+      <c r="F66" s="68">
         <v>0.77527446077242002</v>
       </c>
-      <c r="G66" s="48">
+      <c r="G66" s="68">
         <v>3.029287280819E-2</v>
       </c>
-      <c r="H66" s="49">
+      <c r="H66" s="69">
         <v>0.78685302209931995</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="51">
+      <c r="C67" s="63">
         <v>4.0226300160090096</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="64">
         <v>0.31871008127928002</v>
       </c>
-      <c r="E67" s="52">
+      <c r="E67" s="64">
         <v>0.62658744553724999</v>
       </c>
-      <c r="F67" s="52">
+      <c r="F67" s="64">
         <v>0.67626983589596001</v>
       </c>
-      <c r="G67" s="52">
+      <c r="G67" s="64">
         <v>1.3520396573260001E-2</v>
       </c>
-      <c r="H67" s="53">
+      <c r="H67" s="65">
         <v>0.67539036936230001</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="C68" s="43">
+      <c r="C68" s="63">
         <v>4.3429823788729598</v>
       </c>
-      <c r="D68" s="44">
+      <c r="D68" s="64">
         <v>0.37984797697175998</v>
       </c>
-      <c r="E68" s="44">
+      <c r="E68" s="64">
         <v>0.62148633870212</v>
       </c>
-      <c r="F68" s="44">
+      <c r="F68" s="64">
         <v>0.68800481070172004</v>
       </c>
-      <c r="G68" s="44">
+      <c r="G68" s="64">
         <v>1.574234590358E-2</v>
       </c>
-      <c r="H68" s="45">
+      <c r="H68" s="65">
         <v>0.61346105553886998</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
+      <c r="A69" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="43">
+      <c r="C69" s="63">
         <v>3.6222256932939798</v>
       </c>
-      <c r="D69" s="44">
+      <c r="D69" s="64">
         <v>0.37055775736058999</v>
       </c>
-      <c r="E69" s="44">
+      <c r="E69" s="64">
         <v>0.65886046205247994</v>
       </c>
-      <c r="F69" s="44">
+      <c r="F69" s="64">
         <v>0.70117816329002003</v>
       </c>
-      <c r="G69" s="44">
+      <c r="G69" s="64">
         <v>0.10691350512207</v>
       </c>
-      <c r="H69" s="45">
+      <c r="H69" s="65">
         <v>0.60988614814622</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C70" s="43">
+      <c r="C70" s="63">
         <v>4.1749783886803504</v>
       </c>
-      <c r="D70" s="44">
+      <c r="D70" s="64">
         <v>0.44011310736338</v>
       </c>
-      <c r="E70" s="44">
+      <c r="E70" s="64">
         <v>0.61449888679716003</v>
       </c>
-      <c r="F70" s="44">
+      <c r="F70" s="64">
         <v>0.66113880276680004</v>
       </c>
-      <c r="G70" s="44">
+      <c r="G70" s="64">
         <v>1.605129138463E-2</v>
       </c>
-      <c r="H70" s="45">
+      <c r="H70" s="65">
         <v>0.60809252328343</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="C71" s="43">
+      <c r="C71" s="63">
         <v>4.3406872015733002</v>
       </c>
-      <c r="D71" s="44">
+      <c r="D71" s="64">
         <v>0.38726662213986002</v>
       </c>
-      <c r="E71" s="44">
+      <c r="E71" s="64">
         <v>0.65433690410393996</v>
       </c>
-      <c r="F71" s="44">
+      <c r="F71" s="64">
         <v>0.72058688218777001</v>
       </c>
-      <c r="G71" s="44">
+      <c r="G71" s="64">
         <v>7.9224186555409998E-2</v>
       </c>
-      <c r="H71" s="45">
+      <c r="H71" s="65">
         <v>0.58574552031663996</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="43">
+      <c r="C72" s="63">
         <v>3.98729801177979</v>
       </c>
-      <c r="D72" s="44">
+      <c r="D72" s="64">
         <v>0.33128134161234002</v>
       </c>
-      <c r="E72" s="44">
+      <c r="E72" s="64">
         <v>0.63057645658651995</v>
       </c>
-      <c r="F72" s="44">
+      <c r="F72" s="64">
         <v>0.64228091637294005</v>
       </c>
-      <c r="G72" s="44">
+      <c r="G72" s="64">
         <v>0.14716761261225</v>
       </c>
-      <c r="H72" s="45">
+      <c r="H72" s="65">
         <v>0.69766115148861996</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="43">
+      <c r="C73" s="63">
         <v>4.0191413879394497</v>
       </c>
-      <c r="D73" s="44">
+      <c r="D73" s="64">
         <v>0.29218957126140999</v>
       </c>
-      <c r="E73" s="44">
+      <c r="E73" s="64">
         <v>0.65709876616796004</v>
       </c>
-      <c r="F73" s="44">
+      <c r="F73" s="64">
         <v>0.68317899505296997</v>
       </c>
-      <c r="G73" s="44">
+      <c r="G73" s="64">
         <v>-3.8849144491100003E-2</v>
       </c>
-      <c r="H73" s="45">
+      <c r="H73" s="65">
         <v>0.70258883039157005</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="43">
+      <c r="C74" s="63">
         <v>4.8256139755248997</v>
       </c>
-      <c r="D74" s="44">
+      <c r="D74" s="64">
         <v>0.35313885807991002</v>
       </c>
-      <c r="E74" s="44">
+      <c r="E74" s="64">
         <v>0.55772436857223995</v>
       </c>
-      <c r="F74" s="44">
+      <c r="F74" s="64">
         <v>0.64267494082451004</v>
       </c>
-      <c r="G74" s="44">
+      <c r="G74" s="64">
         <v>-0.14315950423480001</v>
       </c>
-      <c r="H74" s="45">
+      <c r="H74" s="65">
         <v>0.72674454450606996</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="47">
+      <c r="C75" s="55">
         <v>4.2672576904296902</v>
       </c>
-      <c r="D75" s="48">
+      <c r="D75" s="56">
         <v>0.35927602648735002</v>
       </c>
-      <c r="E75" s="48">
+      <c r="E75" s="68">
         <v>0.61192390322684997</v>
       </c>
-      <c r="F75" s="48">
+      <c r="F75" s="56">
         <v>0.62931482493877</v>
       </c>
-      <c r="G75" s="48">
+      <c r="G75" s="56">
         <v>-6.1405742541000001E-2</v>
       </c>
-      <c r="H75" s="49">
+      <c r="H75" s="57">
         <v>0.73265770077704995</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="C76" s="51">
+      <c r="C76" s="71">
         <v>5.5457022984822597</v>
       </c>
-      <c r="D76" s="52">
+      <c r="D76" s="72">
         <v>0.24541623890399999</v>
       </c>
-      <c r="E76" s="52">
+      <c r="E76" s="64">
         <v>0.74164025651083998</v>
       </c>
-      <c r="F76" s="52">
+      <c r="F76" s="72">
         <v>0.88069870736863998</v>
       </c>
-      <c r="G76" s="52">
+      <c r="G76" s="72">
         <v>0.18001501013835</v>
       </c>
-      <c r="H76" s="53">
+      <c r="H76" s="73">
         <v>0.80461551745732995</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C77" s="43">
+      <c r="C77" s="63">
         <v>6.1290524005889901</v>
       </c>
-      <c r="D77" s="44">
+      <c r="D77" s="64">
         <v>0.31400364637375</v>
       </c>
-      <c r="E77" s="44">
+      <c r="E77" s="64">
         <v>0.75616323351860004</v>
       </c>
-      <c r="F77" s="44">
+      <c r="F77" s="64">
         <v>0.82056602835655001</v>
       </c>
-      <c r="G77" s="44">
+      <c r="G77" s="64">
         <v>-6.3323236070600003E-2</v>
       </c>
-      <c r="H77" s="45">
+      <c r="H77" s="65">
         <v>0.86979270577431</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="43">
+      <c r="C78" s="63">
         <v>6.5589201362044696</v>
       </c>
-      <c r="D78" s="44">
+      <c r="D78" s="64">
         <v>0.22940969853488999</v>
       </c>
-      <c r="E78" s="44">
+      <c r="E78" s="64">
         <v>0.66581974537284005</v>
       </c>
-      <c r="F78" s="44">
+      <c r="F78" s="64">
         <v>0.82205648554695998</v>
       </c>
-      <c r="G78" s="44">
+      <c r="G78" s="64">
         <v>1.786671108049E-2</v>
       </c>
-      <c r="H78" s="45">
+      <c r="H78" s="65">
         <v>0.9122765439528</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="41" t="s">
+      <c r="A79" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="47">
+      <c r="C79" s="67">
         <v>6.6863490656802602</v>
       </c>
-      <c r="D79" s="48">
+      <c r="D79" s="68">
         <v>0.23078430287148</v>
       </c>
-      <c r="E79" s="48">
+      <c r="E79" s="68">
         <v>0.68333864290462998</v>
       </c>
-      <c r="F79" s="48">
+      <c r="F79" s="68">
         <v>0.82695349658789996</v>
       </c>
-      <c r="G79" s="48">
+      <c r="G79" s="68">
         <v>4.7078342814190002E-2</v>
       </c>
-      <c r="H79" s="49">
+      <c r="H79" s="69">
         <v>0.90766296104380995</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="63">
         <v>4.6529543101787603</v>
       </c>
-      <c r="D80" s="52">
+      <c r="D80" s="64">
         <v>0.41534358635544999</v>
       </c>
-      <c r="E80" s="52">
+      <c r="E80" s="64">
         <v>0.59366140142083001</v>
       </c>
-      <c r="F80" s="52">
+      <c r="F80" s="64">
         <v>0.6064353659749</v>
       </c>
-      <c r="G80" s="52">
+      <c r="G80" s="64">
         <v>-4.520683709E-2</v>
       </c>
-      <c r="H80" s="53">
+      <c r="H80" s="65">
         <v>0.72101350128650998</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="43">
+      <c r="C81" s="63">
         <v>5.7982771536883204</v>
       </c>
-      <c r="D81" s="44">
+      <c r="D81" s="64">
         <v>0.26370836980640999</v>
       </c>
-      <c r="E81" s="44">
+      <c r="E81" s="64">
         <v>0.64169100113212996</v>
       </c>
-      <c r="F81" s="44">
+      <c r="F81" s="64">
         <v>0.80826588347553996</v>
       </c>
-      <c r="G81" s="44">
+      <c r="G81" s="64">
         <v>5.4590231884499997E-2</v>
       </c>
-      <c r="H81" s="45">
+      <c r="H81" s="65">
         <v>0.87310682609677004</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="43">
+      <c r="C82" s="63">
         <v>4.1574515318259202</v>
       </c>
-      <c r="D82" s="44">
+      <c r="D82" s="64">
         <v>0.34068421904856999</v>
       </c>
-      <c r="E82" s="44">
+      <c r="E82" s="64">
         <v>0.64213167398404003</v>
       </c>
-      <c r="F82" s="44">
+      <c r="F82" s="64">
         <v>0.70448777767327997</v>
       </c>
-      <c r="G82" s="44">
+      <c r="G82" s="64">
         <v>2.062630425327E-2</v>
       </c>
-      <c r="H82" s="45">
+      <c r="H82" s="65">
         <v>0.64201173797632005</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="41" t="s">
+      <c r="A83" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="C83" s="47">
+      <c r="C83" s="55">
         <v>5.9062527129938296</v>
       </c>
-      <c r="D83" s="48">
+      <c r="D83" s="56">
         <v>0.27831128918462</v>
       </c>
-      <c r="E83" s="48">
+      <c r="E83" s="68">
         <v>0.65958086334997001</v>
       </c>
-      <c r="F83" s="48">
+      <c r="F83" s="56">
         <v>0.81465391831084</v>
       </c>
-      <c r="G83" s="48">
+      <c r="G83" s="56">
         <v>3.5971294761029997E-2</v>
       </c>
-      <c r="H83" s="49">
+      <c r="H83" s="57">
         <v>0.83955044389426003</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="41" t="s">
+      <c r="A84" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="51">
+      <c r="C84" s="71">
         <v>3.9090928792953501</v>
       </c>
-      <c r="D84" s="52">
+      <c r="D84" s="72">
         <v>0.40022549405694002</v>
       </c>
-      <c r="E84" s="52">
+      <c r="E84" s="64">
         <v>0.62621773183345997</v>
       </c>
-      <c r="F84" s="52">
+      <c r="F84" s="72">
         <v>0.68717293143271996</v>
       </c>
-      <c r="G84" s="52">
+      <c r="G84" s="72">
         <v>9.0369587053399994E-2</v>
       </c>
-      <c r="H84" s="53">
+      <c r="H84" s="73">
         <v>0.60855632573366003</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="33" t="s">
+      <c r="B85" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="43">
+      <c r="C85" s="63">
         <v>2.9800322453181001</v>
       </c>
-      <c r="D85" s="44">
+      <c r="D85" s="64">
         <v>0.47704794506232001</v>
       </c>
-      <c r="E85" s="44">
+      <c r="E85" s="64">
         <v>0.35000315805276</v>
       </c>
-      <c r="F85" s="44">
+      <c r="F85" s="64">
         <v>0.48931874831518002</v>
       </c>
-      <c r="G85" s="44">
+      <c r="G85" s="64">
         <v>-4.8352138449700002E-2</v>
       </c>
-      <c r="H85" s="45">
+      <c r="H85" s="65">
         <v>0.52072430153687999</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="41" t="s">
+      <c r="A86" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="33" t="s">
+      <c r="B86" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C86" s="43">
+      <c r="C86" s="63">
         <v>4.3328224477313801</v>
       </c>
-      <c r="D86" s="44">
+      <c r="D86" s="64">
         <v>0.32862532422655999</v>
       </c>
-      <c r="E86" s="44">
+      <c r="E86" s="64">
         <v>0.62715816072054997</v>
       </c>
-      <c r="F86" s="44">
+      <c r="F86" s="64">
         <v>0.67610322861444005</v>
       </c>
-      <c r="G86" s="44">
+      <c r="G86" s="64">
         <v>-2.1087921135799999E-2</v>
       </c>
-      <c r="H86" s="45">
+      <c r="H86" s="65">
         <v>0.65075423603965998</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="41" t="s">
+      <c r="A87" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="43">
+      <c r="C87" s="63">
         <v>4.9198006547015698</v>
       </c>
-      <c r="D87" s="44">
+      <c r="D87" s="64">
         <v>0.32786073438499003</v>
       </c>
-      <c r="E87" s="44">
+      <c r="E87" s="64">
         <v>0.62754350382349</v>
       </c>
-      <c r="F87" s="44">
+      <c r="F87" s="64">
         <v>0.81039826248003</v>
       </c>
-      <c r="G87" s="44">
+      <c r="G87" s="64">
         <v>0.10471801205193999</v>
       </c>
-      <c r="H87" s="45">
+      <c r="H87" s="65">
         <v>0.75867701483809002</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="41" t="s">
+      <c r="A88" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="33" t="s">
+      <c r="B88" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="43">
+      <c r="C88" s="63">
         <v>5.0321858723958304</v>
       </c>
-      <c r="D88" s="44">
+      <c r="D88" s="64">
         <v>0.28396525730688998</v>
       </c>
-      <c r="E88" s="44">
+      <c r="E88" s="64">
         <v>0.68295841415723002</v>
       </c>
-      <c r="F88" s="44">
+      <c r="F88" s="64">
         <v>0.73081330458323002</v>
       </c>
-      <c r="G88" s="44">
+      <c r="G88" s="64">
         <v>-0.1310329673191</v>
       </c>
-      <c r="H88" s="45">
+      <c r="H88" s="65">
         <v>0.82826671997706003</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="41" t="s">
+      <c r="A89" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="43">
+      <c r="C89" s="63">
         <v>5.7913472512189097</v>
       </c>
-      <c r="D89" s="44">
+      <c r="D89" s="64">
         <v>0.28221876016169001</v>
       </c>
-      <c r="E89" s="44">
+      <c r="E89" s="64">
         <v>0.65924372546600996</v>
       </c>
-      <c r="F89" s="44">
+      <c r="F89" s="64">
         <v>0.81330600643858997</v>
       </c>
-      <c r="G89" s="44">
+      <c r="G89" s="64">
         <v>-8.2057508647000003E-3</v>
       </c>
-      <c r="H89" s="45">
+      <c r="H89" s="65">
         <v>0.84918362428159999</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="41" t="s">
+      <c r="A90" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="C90" s="47">
+      <c r="C90" s="67">
         <v>6.6189233597288801</v>
       </c>
-      <c r="D90" s="48">
+      <c r="D90" s="68">
         <v>0.23238995930423001</v>
       </c>
-      <c r="E90" s="48">
+      <c r="E90" s="68">
         <v>0.68774877747763996</v>
       </c>
-      <c r="F90" s="48">
+      <c r="F90" s="68">
         <v>0.83773529270420999</v>
       </c>
-      <c r="G90" s="48">
+      <c r="G90" s="68">
         <v>4.4217347005459998E-2</v>
       </c>
-      <c r="H90" s="49">
+      <c r="H90" s="69">
         <v>0.90403143089751004</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="41" t="s">
+      <c r="A91" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C91" s="51">
+      <c r="C91" s="63">
         <v>3.9619719735507299</v>
       </c>
-      <c r="D91" s="52">
+      <c r="D91" s="64">
         <v>0.38459606417294001</v>
       </c>
-      <c r="E91" s="52">
+      <c r="E91" s="64">
         <v>0.63810673869889001</v>
       </c>
-      <c r="F91" s="52">
+      <c r="F91" s="64">
         <v>0.68377071516266996</v>
       </c>
-      <c r="G91" s="52">
+      <c r="G91" s="64">
         <v>6.5447386437360006E-2</v>
       </c>
-      <c r="H91" s="53">
+      <c r="H91" s="65">
         <v>0.60728913237309001</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="41" t="s">
+      <c r="A92" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="C92" s="43">
+      <c r="C92" s="63">
         <v>3.9332077950239199</v>
       </c>
-      <c r="D92" s="44">
+      <c r="D92" s="64">
         <v>0.36051606200635</v>
       </c>
-      <c r="E92" s="44">
+      <c r="E92" s="64">
         <v>0.52851110510527999</v>
       </c>
-      <c r="F92" s="44">
+      <c r="F92" s="64">
         <v>0.72807896882295997</v>
       </c>
-      <c r="G92" s="44">
+      <c r="G92" s="64">
         <v>0.12467071413994001</v>
       </c>
-      <c r="H92" s="45">
+      <c r="H92" s="65">
         <v>0.62578642554580999</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="41" t="s">
+      <c r="A93" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="C93" s="43">
+      <c r="C93" s="63">
         <v>4.6428523063659703</v>
       </c>
-      <c r="D93" s="44">
+      <c r="D93" s="64">
         <v>0.25989779084921</v>
       </c>
-      <c r="E93" s="44">
+      <c r="E93" s="64">
         <v>0.66359958052635004</v>
       </c>
-      <c r="F93" s="44">
+      <c r="F93" s="64">
         <v>0.63934868574142001</v>
       </c>
-      <c r="G93" s="44">
+      <c r="G93" s="64">
         <v>-2.59068771265E-2</v>
       </c>
-      <c r="H93" s="45">
+      <c r="H93" s="65">
         <v>0.67942856252192996</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="41" t="s">
+      <c r="A94" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="C94" s="43">
+      <c r="C94" s="63">
         <v>5.56219015802656</v>
       </c>
-      <c r="D94" s="44">
+      <c r="D94" s="64">
         <v>0.27049699674049998</v>
       </c>
-      <c r="E94" s="44">
+      <c r="E94" s="64">
         <v>0.70288389921187999</v>
       </c>
-      <c r="F94" s="44">
+      <c r="F94" s="64">
         <v>0.82645824125834999</v>
       </c>
-      <c r="G94" s="44">
+      <c r="G94" s="64">
         <v>4.2430088838700003E-2</v>
       </c>
-      <c r="H94" s="45">
+      <c r="H94" s="65">
         <v>0.81273209197180996</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="41" t="s">
+      <c r="A95" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="C95" s="43">
+      <c r="C95" s="63">
         <v>3.75060419738293</v>
       </c>
-      <c r="D95" s="44">
+      <c r="D95" s="64">
         <v>0.37097358983009998</v>
       </c>
-      <c r="E95" s="44">
+      <c r="E95" s="64">
         <v>0.64480250701307995</v>
       </c>
-      <c r="F95" s="44">
+      <c r="F95" s="64">
         <v>0.70095445029437997</v>
       </c>
-      <c r="G95" s="44">
+      <c r="G95" s="64">
         <v>2.8360572333139999E-2</v>
       </c>
-      <c r="H95" s="45">
+      <c r="H95" s="65">
         <v>0.62985274754465004</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="41" t="s">
+      <c r="A96" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="C96" s="47">
+      <c r="C96" s="55">
         <v>5.2799206450581604</v>
       </c>
-      <c r="D96" s="48">
+      <c r="D96" s="56">
         <v>0.29014184977858998</v>
       </c>
-      <c r="E96" s="48">
+      <c r="E96" s="68">
         <v>0.60102706123143002</v>
       </c>
-      <c r="F96" s="48">
+      <c r="F96" s="56">
         <v>0.82393078505993</v>
       </c>
-      <c r="G96" s="48">
+      <c r="G96" s="56">
         <v>5.6681998423299997E-2</v>
       </c>
-      <c r="H96" s="49">
+      <c r="H96" s="57">
         <v>0.81944529246539</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="41" t="s">
+      <c r="A97" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B97" s="50" t="s">
+      <c r="B97" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="C97" s="51">
+      <c r="C97" s="71">
         <v>4.1692030063042296</v>
       </c>
-      <c r="D97" s="52">
+      <c r="D97" s="72">
         <v>0.35715309358559999</v>
       </c>
-      <c r="E97" s="52">
+      <c r="E97" s="64">
         <v>0.64816629542754001</v>
       </c>
-      <c r="F97" s="52">
+      <c r="F97" s="72">
         <v>0.68807098842584002</v>
       </c>
-      <c r="G97" s="52">
+      <c r="G97" s="72">
         <v>5.1410212772540001E-2</v>
       </c>
-      <c r="H97" s="53">
+      <c r="H97" s="73">
         <v>0.64304039111503997</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="41" t="s">
+      <c r="A98" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="C98" s="47">
+      <c r="C98" s="67">
         <v>5.12889281908671</v>
       </c>
-      <c r="D98" s="48">
+      <c r="D98" s="68">
         <v>0.31460393468539</v>
       </c>
-      <c r="E98" s="48">
+      <c r="E98" s="68">
         <v>0.65218216429153997</v>
       </c>
-      <c r="F98" s="48">
+      <c r="F98" s="68">
         <v>0.81822786231835998</v>
       </c>
-      <c r="G98" s="48">
+      <c r="G98" s="68">
         <v>0.10330939549992001</v>
       </c>
-      <c r="H98" s="49">
+      <c r="H98" s="69">
         <v>0.76397292067607003</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="54"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-      <c r="G99" s="56"/>
-      <c r="H99" s="56"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="77"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="77"/>
+      <c r="H99" s="77"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C100" s="57"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="57"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="57"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="78"/>
+      <c r="F100" s="78"/>
+      <c r="G100" s="78"/>
+      <c r="H100" s="78"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C101" s="57"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="57"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="57"/>
-      <c r="H101" s="57"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="78"/>
+      <c r="H101" s="78"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C102" s="57"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="57"/>
+      <c r="C102" s="78"/>
+      <c r="D102" s="78"/>
+      <c r="E102" s="78"/>
+      <c r="F102" s="78"/>
+      <c r="G102" s="78"/>
+      <c r="H102" s="78"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C103" s="57"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="57"/>
+      <c r="C103" s="78"/>
+      <c r="D103" s="78"/>
+      <c r="E103" s="78"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="78"/>
+      <c r="H103" s="78"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C104" s="57"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="57"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="78"/>
+      <c r="E104" s="78"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="78"/>
+      <c r="H104" s="78"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="57"/>
+      <c r="B105" s="79"/>
+      <c r="C105" s="78"/>
+      <c r="D105" s="78"/>
+      <c r="E105" s="78"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="78"/>
+      <c r="H105" s="78"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C106" s="57"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="57"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="78"/>
+      <c r="E106" s="78"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="78"/>
+      <c r="H106" s="78"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="57"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="78"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="78"/>
+      <c r="H107" s="78"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="58"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
+      <c r="B108" s="80"/>
+      <c r="C108" s="78"/>
+      <c r="D108" s="78"/>
+      <c r="E108" s="78"/>
+      <c r="F108" s="78"/>
+      <c r="G108" s="78"/>
+      <c r="H108" s="78"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C109" s="57"/>
-      <c r="D109" s="57"/>
-      <c r="E109" s="57"/>
-      <c r="F109" s="57"/>
-      <c r="G109" s="57"/>
-      <c r="H109" s="57"/>
+        <v>168</v>
+      </c>
+      <c r="C109" s="78"/>
+      <c r="D109" s="78"/>
+      <c r="E109" s="78"/>
+      <c r="F109" s="78"/>
+      <c r="G109" s="78"/>
+      <c r="H109" s="78"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" s="78"/>
+      <c r="D110" s="78"/>
+      <c r="E110" s="78"/>
+      <c r="F110" s="78"/>
+      <c r="G110" s="78"/>
+      <c r="H110" s="78"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="C110" s="57"/>
-      <c r="D110" s="57"/>
-      <c r="E110" s="57"/>
-      <c r="F110" s="57"/>
-      <c r="G110" s="57"/>
-      <c r="H110" s="57"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C111" s="57"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="57"/>
-      <c r="F111" s="57"/>
-      <c r="G111" s="57"/>
-      <c r="H111" s="57"/>
+      <c r="C111" s="78"/>
+      <c r="D111" s="78"/>
+      <c r="E111" s="78"/>
+      <c r="F111" s="78"/>
+      <c r="G111" s="78"/>
+      <c r="H111" s="78"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C112" s="57"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="57"/>
-      <c r="F112" s="57"/>
-      <c r="G112" s="57"/>
-      <c r="H112" s="57"/>
+      <c r="C112" s="78"/>
+      <c r="D112" s="78"/>
+      <c r="E112" s="78"/>
+      <c r="F112" s="78"/>
+      <c r="G112" s="78"/>
+      <c r="H112" s="78"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C113" s="57"/>
-      <c r="D113" s="57"/>
-      <c r="E113" s="57"/>
-      <c r="F113" s="57"/>
-      <c r="G113" s="57"/>
-      <c r="H113" s="57"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="78"/>
+      <c r="D113" s="78"/>
+      <c r="E113" s="78"/>
+      <c r="F113" s="78"/>
+      <c r="G113" s="78"/>
+      <c r="H113" s="78"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="57"/>
-      <c r="D114" s="57"/>
-      <c r="E114" s="57"/>
-      <c r="F114" s="57"/>
-      <c r="G114" s="57"/>
-      <c r="H114" s="57"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="78"/>
+      <c r="E114" s="78"/>
+      <c r="F114" s="78"/>
+      <c r="G114" s="78"/>
+      <c r="H114" s="78"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="79"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{367FE44A-913B-4642-9E51-9DB6E939879E}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DED36A3E-FDF6-4236-B5C0-84FF8D01F1A3}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{CDE33CD3-7AEA-4947-9344-CAC4F92C07C4}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{BC80743A-4653-47C4-BDB4-605092962A9E}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{7780000F-CCDF-4D9E-A454-FDFC0EF738C1}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{5D60D0CB-6CFE-4107-A0AC-66E30F567EC2}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{0965084B-CCA0-4C9E-8262-5AC335BE76CF}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{077A9588-3F6B-407D-B0C3-67996BA7F6B2}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{56C5612E-6EFE-4E60-9760-BA09D8AF938A}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{CC358188-6DEC-4A8D-8691-6C23EF0A0160}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{6C2BAB72-6EAE-4BD5-A0D8-9D54952DEFD3}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{899CBAAD-0726-4D52-BD57-A05A84F6CB19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/AfDD_2024_Annex_Table_Tab14.xlsx
+++ b/AfDD_2024_Annex_Table_Tab14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{835CA2BD-DAC0-4EBB-AF85-0F5533A9D053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67BF9286-9830-4994-A313-51B7B90576A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{C872659A-9D4F-43E4-8BDC-5D2FCDA1A366}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AF3ED6C7-149C-46B2-94DD-70B8BA5B4C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
@@ -1459,7 +1459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF990D8B-0BB5-40D5-B74C-1255910D6BBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9CB370-2D2D-440B-9911-B48BB8A14DD3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4176,12 +4176,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{0965084B-CCA0-4C9E-8262-5AC335BE76CF}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{077A9588-3F6B-407D-B0C3-67996BA7F6B2}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{56C5612E-6EFE-4E60-9760-BA09D8AF938A}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{CC358188-6DEC-4A8D-8691-6C23EF0A0160}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{6C2BAB72-6EAE-4BD5-A0D8-9D54952DEFD3}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{899CBAAD-0726-4D52-BD57-A05A84F6CB19}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{9E85774B-4C2F-4309-974C-7D18F7841135}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{0B0D0708-AC2A-404A-8E2E-5688D30A3E98}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{76F7CE97-3522-4258-8B05-8892CBDAB081}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{386D2CB3-3578-4827-9B7D-EFD16B18D6E6}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{3D421A91-4379-4CDC-AAEE-082BAF2C4DC9}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{27A06E2F-51C8-4C8F-86F7-074E7FCB4884}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab14.xlsx
+++ b/AfDD_2024_Annex_Table_Tab14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67BF9286-9830-4994-A313-51B7B90576A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{859D9FA1-7119-42ED-967D-19A17CBA7A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AF3ED6C7-149C-46B2-94DD-70B8BA5B4C31}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{1A81565F-4EE2-4764-9497-E7EA98A9CB72}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
@@ -1142,8 +1142,8 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1459,7 +1459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9CB370-2D2D-440B-9911-B48BB8A14DD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD585D5D-4236-40DE-A858-6BFAB916E307}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1471,7 +1471,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="12.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.42578125" style="82" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4132,7 +4132,7 @@
       <c r="H110" s="78"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="82" t="s">
+      <c r="B111" s="81" t="s">
         <v>170</v>
       </c>
       <c r="C111" s="78"/>
@@ -4143,7 +4143,7 @@
       <c r="H111" s="78"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="81" t="s">
         <v>167</v>
       </c>
       <c r="C112" s="78"/>
@@ -4176,12 +4176,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{9E85774B-4C2F-4309-974C-7D18F7841135}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{0B0D0708-AC2A-404A-8E2E-5688D30A3E98}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{76F7CE97-3522-4258-8B05-8892CBDAB081}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{386D2CB3-3578-4827-9B7D-EFD16B18D6E6}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{3D421A91-4379-4CDC-AAEE-082BAF2C4DC9}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{27A06E2F-51C8-4C8F-86F7-074E7FCB4884}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{D06CFFD8-927A-479D-BEB7-908BCD566278}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D6E47467-BFE1-40C9-9BBD-11CB0133F5FF}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{EF5C0F46-0022-4676-8973-72DC942192D7}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{FEA7DF72-D885-48DD-A7FD-12C7E9A0187C}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{C18FCC4A-D5A9-4639-9B6E-E44277273B3F}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{4C9F0670-3C47-4B35-A52B-17ABC09F5D49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab14.xlsx
+++ b/AfDD_2024_Annex_Table_Tab14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{859D9FA1-7119-42ED-967D-19A17CBA7A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C367251-30AD-41BC-8FEB-AB2527BEFA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{1A81565F-4EE2-4764-9497-E7EA98A9CB72}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{EC89FE65-C81A-478F-8E32-A68CD4444EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
@@ -1459,7 +1459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD585D5D-4236-40DE-A858-6BFAB916E307}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90E9F57-37C1-4C15-B25A-2E9428A01EF3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4176,12 +4176,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{D06CFFD8-927A-479D-BEB7-908BCD566278}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D6E47467-BFE1-40C9-9BBD-11CB0133F5FF}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{EF5C0F46-0022-4676-8973-72DC942192D7}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{FEA7DF72-D885-48DD-A7FD-12C7E9A0187C}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{C18FCC4A-D5A9-4639-9B6E-E44277273B3F}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{4C9F0670-3C47-4B35-A52B-17ABC09F5D49}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{2738B602-2931-485A-844B-C7D8C5CCE89E}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{49B13CB8-5F78-40A5-9592-DD99921D8D0C}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{EE8963DB-817C-47CB-86C7-1F0A7D78492C}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{0C4B42EB-D187-4683-ADEE-7024F7DAE95F}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{2716BF47-0538-4704-B5F9-D4200C54A1F7}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{1EC7B427-C766-4964-A44F-BC77EEBBAE86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>
